--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf15-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Fgf15</t>
   </si>
   <si>
     <t>Fgfr3</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H2">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>1.137582734558822</v>
+        <v>1.480191125238</v>
       </c>
       <c r="R2">
-        <v>1.137582734558822</v>
+        <v>5.920764500952</v>
       </c>
       <c r="S2">
-        <v>0.6074051537697821</v>
+        <v>0.4576949645017216</v>
       </c>
       <c r="T2">
-        <v>0.6074051537697821</v>
+        <v>0.3829134332993344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H3">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>0.1393457411461805</v>
+        <v>0.185450810181</v>
       </c>
       <c r="R3">
-        <v>0.1393457411461805</v>
+        <v>1.112704861086</v>
       </c>
       <c r="S3">
-        <v>0.07440278298605235</v>
+        <v>0.05734387981076462</v>
       </c>
       <c r="T3">
-        <v>0.07440278298605235</v>
+        <v>0.07196192966952013</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.16803684324576</v>
+        <v>0.216573</v>
       </c>
       <c r="H4">
-        <v>0.16803684324576</v>
+        <v>0.433146</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7890929340172668</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7760929277509313</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>0.459829940846545</v>
+        <v>0.06038928751100001</v>
       </c>
       <c r="R4">
-        <v>0.459829940846545</v>
+        <v>0.362335725066</v>
       </c>
       <c r="S4">
-        <v>0.2455233078376184</v>
+        <v>0.01867317830269195</v>
       </c>
       <c r="T4">
-        <v>0.2455233078376184</v>
+        <v>0.0234333279882551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,929 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.216573</v>
+      </c>
+      <c r="H5">
+        <v>0.433146</v>
+      </c>
+      <c r="I5">
+        <v>0.7890929340172668</v>
+      </c>
+      <c r="J5">
+        <v>0.7760929277509313</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.162391</v>
+      </c>
+      <c r="O5">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P5">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q5">
+        <v>0.011723168681</v>
+      </c>
+      <c r="R5">
+        <v>0.07033901208600001</v>
+      </c>
+      <c r="S5">
+        <v>0.003624961116041855</v>
+      </c>
+      <c r="T5">
+        <v>0.004549032917692126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.216573</v>
+      </c>
+      <c r="H6">
+        <v>0.433146</v>
+      </c>
+      <c r="I6">
+        <v>0.7890929340172668</v>
+      </c>
+      <c r="J6">
+        <v>0.7760929277509313</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.949111</v>
+      </c>
+      <c r="N6">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P6">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q6">
+        <v>0.6386978166030001</v>
+      </c>
+      <c r="R6">
+        <v>3.832186899618001</v>
+      </c>
+      <c r="S6">
+        <v>0.1974939381226419</v>
+      </c>
+      <c r="T6">
+        <v>0.2478389137993105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.216573</v>
+      </c>
+      <c r="H7">
+        <v>0.433146</v>
+      </c>
+      <c r="I7">
+        <v>0.7890929340172668</v>
+      </c>
+      <c r="J7">
+        <v>0.7760929277509313</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.620553</v>
+      </c>
+      <c r="O7">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P7">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q7">
+        <v>0.1754840124345</v>
+      </c>
+      <c r="R7">
+        <v>0.7019360497380001</v>
+      </c>
+      <c r="S7">
+        <v>0.05426201216340478</v>
+      </c>
+      <c r="T7">
+        <v>0.04539629007681908</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.027584</v>
+      </c>
+      <c r="I8">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J8">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.834606</v>
+      </c>
+      <c r="N8">
+        <v>13.669212</v>
+      </c>
+      <c r="O8">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P8">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q8">
+        <v>0.06284192396800001</v>
+      </c>
+      <c r="R8">
+        <v>0.377051543808</v>
+      </c>
+      <c r="S8">
+        <v>0.01943156641689021</v>
+      </c>
+      <c r="T8">
+        <v>0.02438504371304096</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.027584</v>
+      </c>
+      <c r="I9">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J9">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.856297</v>
+      </c>
+      <c r="N9">
+        <v>2.568891</v>
+      </c>
+      <c r="O9">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P9">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q9">
+        <v>0.007873365482666667</v>
+      </c>
+      <c r="R9">
+        <v>0.070860289344</v>
+      </c>
+      <c r="S9">
+        <v>0.00243455029127997</v>
+      </c>
+      <c r="T9">
+        <v>0.004582745466895788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.027584</v>
+      </c>
+      <c r="I10">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J10">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P10">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q10">
+        <v>0.002563843918222222</v>
+      </c>
+      <c r="R10">
+        <v>0.023074595264</v>
+      </c>
+      <c r="S10">
+        <v>0.0007927749539438663</v>
+      </c>
+      <c r="T10">
+        <v>0.001492302639821281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.027584</v>
+      </c>
+      <c r="I11">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J11">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.162391</v>
+      </c>
+      <c r="O11">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P11">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q11">
+        <v>0.0004977103715555556</v>
+      </c>
+      <c r="R11">
+        <v>0.004479393344</v>
+      </c>
+      <c r="S11">
+        <v>0.0001538987276421015</v>
+      </c>
+      <c r="T11">
+        <v>0.0002896956776736241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.027584</v>
+      </c>
+      <c r="I12">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J12">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.949111</v>
+      </c>
+      <c r="N12">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P12">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q12">
+        <v>0.027116092608</v>
+      </c>
+      <c r="R12">
+        <v>0.244044833472</v>
+      </c>
+      <c r="S12">
+        <v>0.00838465981320379</v>
+      </c>
+      <c r="T12">
+        <v>0.01578310453805456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009194666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.027584</v>
+      </c>
+      <c r="I13">
+        <v>0.03350115895014966</v>
+      </c>
+      <c r="J13">
+        <v>0.04942386012818239</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.620553</v>
+      </c>
+      <c r="O13">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P13">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q13">
+        <v>0.007450222325333334</v>
+      </c>
+      <c r="R13">
+        <v>0.044701333952</v>
+      </c>
+      <c r="S13">
+        <v>0.00230370874718972</v>
+      </c>
+      <c r="T13">
+        <v>0.002890968092696176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0486905</v>
+      </c>
+      <c r="H14">
+        <v>0.097381</v>
+      </c>
+      <c r="I14">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J14">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.834606</v>
+      </c>
+      <c r="N14">
+        <v>13.669212</v>
+      </c>
+      <c r="O14">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P14">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q14">
+        <v>0.332780383443</v>
+      </c>
+      <c r="R14">
+        <v>1.331121533772</v>
+      </c>
+      <c r="S14">
+        <v>0.1029001614655154</v>
+      </c>
+      <c r="T14">
+        <v>0.08608758489775382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0486905</v>
+      </c>
+      <c r="H15">
+        <v>0.097381</v>
+      </c>
+      <c r="I15">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J15">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.856297</v>
+      </c>
+      <c r="N15">
+        <v>2.568891</v>
+      </c>
+      <c r="O15">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P15">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q15">
+        <v>0.0416935290785</v>
+      </c>
+      <c r="R15">
+        <v>0.2501611744709999</v>
+      </c>
+      <c r="S15">
+        <v>0.01289219884254286</v>
+      </c>
+      <c r="T15">
+        <v>0.01617866648462075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.16803684324576</v>
-      </c>
-      <c r="H5">
-        <v>0.16803684324576</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N5">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q5">
-        <v>0.1360981561965772</v>
-      </c>
-      <c r="R5">
-        <v>0.1360981561965772</v>
-      </c>
-      <c r="S5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="T5">
-        <v>0.07266875540654688</v>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0486905</v>
+      </c>
+      <c r="H16">
+        <v>0.097381</v>
+      </c>
+      <c r="I16">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J16">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P16">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q16">
+        <v>0.01357687525016667</v>
+      </c>
+      <c r="R16">
+        <v>0.081461251501</v>
+      </c>
+      <c r="S16">
+        <v>0.004198152069497225</v>
+      </c>
+      <c r="T16">
+        <v>0.005268341189400964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0486905</v>
+      </c>
+      <c r="H17">
+        <v>0.097381</v>
+      </c>
+      <c r="I17">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J17">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P17">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q17">
+        <v>0.002635632995166667</v>
+      </c>
+      <c r="R17">
+        <v>0.015813797971</v>
+      </c>
+      <c r="S17">
+        <v>0.0008149731001585421</v>
+      </c>
+      <c r="T17">
+        <v>0.001022725304072476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0486905</v>
+      </c>
+      <c r="H18">
+        <v>0.097381</v>
+      </c>
+      <c r="I18">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J18">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.949111</v>
+      </c>
+      <c r="N18">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P18">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q18">
+        <v>0.1435936891455</v>
+      </c>
+      <c r="R18">
+        <v>0.861562134873</v>
+      </c>
+      <c r="S18">
+        <v>0.04440109613922554</v>
+      </c>
+      <c r="T18">
+        <v>0.05571978331715092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0486905</v>
+      </c>
+      <c r="H19">
+        <v>0.097381</v>
+      </c>
+      <c r="I19">
+        <v>0.1774059070325836</v>
+      </c>
+      <c r="J19">
+        <v>0.1744832121208863</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.620553</v>
+      </c>
+      <c r="O19">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P19">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q19">
+        <v>0.03945276792325</v>
+      </c>
+      <c r="R19">
+        <v>0.157811071693</v>
+      </c>
+      <c r="S19">
+        <v>0.01219932541564396</v>
+      </c>
+      <c r="T19">
+        <v>0.01020611092788741</v>
       </c>
     </row>
   </sheetData>
